--- a/Data_Bibliography.xlsx
+++ b/Data_Bibliography.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26322"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate.sharepoint.com/sites/Section_SS23-CMSE-495-001-223211859-EL-32-A26-QSIDE-Human_Trafficking/Shared Documents/QSIDE-Human_Trafficking/Team Member Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{934B1104-DCD3-4302-97D5-54E8DBD93D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED17CCA8-B27D-488F-8987-8439BEADAC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="3360" yWindow="340" windowWidth="15780" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="142">
   <si>
     <t>Title</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>This resource contains information on various governmental committees around Michigan dealing with Human Trafficking. Contact names and department names for these prevention/prosecution resources can be found. Also includes arrest data for a small window in time relating to human trafficking.</t>
+  </si>
+  <si>
+    <t>Law enforcement</t>
   </si>
   <si>
     <t>J</t>
@@ -121,6 +124,9 @@
     <t>This resource contains information on various governmental committees around Michigan dealing with Human Trafficking. Contact names and department names for these prevention/prosecution resources can be found. Some updates from the previous year's report</t>
   </si>
   <si>
+    <t>travel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bureau of Justice Statistics – Human Trafficking Data Collection Activities, 2021 </t>
   </si>
   <si>
@@ -232,13 +238,22 @@
     <t>Why are You Here? Modeling Illicit Massage Business Location Characteristics with Machine Learning</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.tandfonline.com/doi/full/10.1080/23322705.2021.1982238  </t>
+    <t>https://www2.census.gov/geo/maps/metroarea/us_wall/Feb2013/cbsa_us_0213.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This paper lead to another source (https://www.tandfonline.com/doi/full/10.1080/23322705.2017.1374080?scroll=top&amp;needAccess=true&amp;role=tab) focused in texas in which they used a website called RubMaps where users would talk abotu their experience at illicit massage businesses; upon trying to access this i was not able to; s o maybe qside has a proxy or vpn? Census demographic data were assigned to each IMB in the data set by establishing the “neighborhood” for each location. The IMB neighborhood was defined as all of the census tracts that fell within 0.5 miles of each IMB. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tandfonline.com/doi/full/10.1080/23322705.2021.1982238 https://www.census.gov/programs-surveys/acs/technical-documentation/table-and-geography-changes/2013/1-year.html#par_textimage_1 </t>
   </si>
   <si>
     <t>Michigan, Texas</t>
   </si>
   <si>
     <t xml:space="preserve">Based on addresses web-scraped weekly from online advertisements over 6 months, we modeled illicit massage business prevalence at the census tract and county levels </t>
+  </si>
+  <si>
+    <t>Connected with the census and illicit massage businesses; there are factors connected with race, neighborhood</t>
   </si>
   <si>
     <t>National Child Abuse and Neglect Data System</t>
@@ -347,13 +362,16 @@
     <t>SAIPE School District Estimates for 2021</t>
   </si>
   <si>
+    <t>Text filescontaining poverty levels in school districts nationwide are avalible to download in article</t>
+  </si>
+  <si>
     <t>SAIPE School District Estimates for 2021 (census.gov)</t>
   </si>
   <si>
     <t>Michigan, Welfare</t>
   </si>
   <si>
-    <t>Multiple tables containing details on estimates of population and poverty in different school stricts across the country</t>
+    <t>Multiple tables containing details on estimates of population and poverty in different school stricts across the country. The 2021 estimates are consistent with the population controls and income concepts used in the 2021 American Community Survey single-year estimates.</t>
   </si>
   <si>
     <t>The table contains data that can be useful in understanding which school districts, and potentially which states have higher risks of poverty</t>
@@ -368,6 +386,9 @@
     <t>Excel Data Tables</t>
   </si>
   <si>
+    <t>State IRS, State/Country SNAP benefits, State/county poverty data found on Article link</t>
+  </si>
+  <si>
     <t>https://www.census.gov/data/datasets/time-series/demo/saipe/model-tables.html</t>
   </si>
   <si>
@@ -386,13 +407,16 @@
     <t>PDF, data from study</t>
   </si>
   <si>
+    <t>There were 235 offenses relating to sex trafficking (198 trafficking of persons and 37 compelling prostitution offenses) recorded by the APD during 2013–2015. (APD = Austin Police Department --&gt; data from there?), but data for roads and SOB locations now unavailable</t>
+  </si>
+  <si>
     <t>https://www.sciencedirect.com/science/article/pii/S0047235218301934?casa_token=rYOwb2PB5iQAAAAA:Y-T55DLYZnsrm1n3ISGdgRsT2puq6rx9yok6aJrrlifMXTTRnUTZswXZ1cthVxiu9C2woiAewEY</t>
   </si>
   <si>
     <t>urban neighborhood, Texas, geography, interstate highway</t>
   </si>
   <si>
-    <t>extent of spatial concentration of sex trafficking; there was a significant cluster of sex trafficking offenses associated with the proximity to the interstate highway</t>
+    <t>Extent of spatial concentration of sex trafficking; there was a significant cluster of sex trafficking offenses associated with the proximity to the interstate highway</t>
   </si>
   <si>
     <t>data science analysis in Texas that shows a connections with geographic clustering factors that are related to HT and that don't increase the risk</t>
@@ -410,22 +434,20 @@
     <t>health care provider,     Child sexual abuse, labor trafficking, legislative review, mandatory education, mandatory reporting, sex trafficking</t>
   </si>
   <si>
-    <t>systematic review of U.S. laws that address education about human trafficking and/or mandatory reporting requirements that affect healthcare providers and other professionals across the United States</t>
+    <t>Systematic review of U.S. laws that address education about human trafficking and/or mandatory reporting requirements that affect healthcare providers and other professionals across the United States</t>
   </si>
   <si>
     <t>goes through 13 states laws + the results can help future physicians and mandated reporters identify HT better</t>
   </si>
   <si>
-    <t>Michigan's First Human Trafficking Court</t>
-  </si>
-  <si>
-    <t>https://heinonline-org.proxy1.cl.msu.edu/HOL/Page?collection=journals&amp;handle=hein.journals/stlulj60&amp;id=110&amp;men_tab=srchresults</t>
-  </si>
-  <si>
     <t>Victim or Whore: The Similarities and Differences between Victim's Experiences of Domestic Violence and Sex Trafficking</t>
   </si>
   <si>
     <t>https://www.tandfonline.com/doi/full/10.1080/10911359.2013.840552?casa_token=eJYIpCD76LwAAAAA%3ApYCgbzESyoXiblqOmLB_OK42O8T69cl6XlHuDIwcATAEisQYZTjYwcX0B0ymEEDic3wMToTcO7k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Sex trafficking, domestic violence, victim, violence against women</t>
   </si>
   <si>
     <t>Difference between domestic violence and HT</t>
@@ -978,11 +1000,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="D18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
@@ -990,12 +1012,12 @@
     <col min="1" max="1" width="18" style="8" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="14" customWidth="1"/>
     <col min="5" max="5" width="34.85546875" style="17" customWidth="1"/>
     <col min="6" max="6" width="24.140625" style="5" customWidth="1"/>
     <col min="7" max="7" width="39.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="36.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="3"/>
+    <col min="9" max="9" width="18.85546875" style="3" customWidth="1"/>
     <col min="10" max="10" width="15.42578125" style="5" customWidth="1"/>
     <col min="11" max="11" width="22.7109375" style="3" customWidth="1"/>
     <col min="12" max="13" width="9.140625" style="3"/>
@@ -1060,449 +1082,479 @@
       <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J2" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="121.5">
       <c r="A3" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="J3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="121.5">
+      <c r="A4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="152.25">
-      <c r="A4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="J4" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="152.25">
       <c r="A5" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="106.5">
       <c r="A6" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="76.5">
       <c r="A7" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="106.5">
       <c r="A8" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="106.5">
       <c r="A9" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E9" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="366">
+      <c r="A10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="91.5">
-      <c r="A10" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>54</v>
+      <c r="C10" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="152.25">
       <c r="A11" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="106.5">
       <c r="A12" s="8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="106.5">
       <c r="A13" s="8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="121.5">
       <c r="A14" s="8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="106.5">
       <c r="A15" s="8" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="60.75">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="106.5">
       <c r="A16" s="8" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="91.5">
       <c r="A17" s="8" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>103</v>
+        <v>109</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="106.5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="229.5">
       <c r="A18" s="8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>109</v>
+        <v>116</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>117</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="152.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="137.25">
       <c r="A19" s="8" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="76.5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="106.5">
       <c r="A20" s="8" t="s">
-        <v>120</v>
+        <v>128</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>121</v>
+        <v>129</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="106.5">
-      <c r="A21" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>125</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="E21" s="16"/>
     </row>
     <row r="22" spans="1:11"/>
-    <row r="23" spans="1:11"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576" xr:uid="{C16078C6-0E4B-4C47-8598-644D7A59B756}"/>
@@ -1516,7 +1568,7 @@
     <hyperlink ref="E7" r:id="rId6" location=":~:text=Web%20Chat%3A%2095-,Cases,were%20identified%20in%20these%20cases" xr:uid="{20F3D778-9EB7-4100-B544-0F629C59862C}"/>
     <hyperlink ref="E8" r:id="rId7" xr:uid="{2E35C3D3-8758-471E-A920-B0F8C0D6150D}"/>
     <hyperlink ref="E9" r:id="rId8" xr:uid="{551E7F0E-49CF-4B20-9AA1-E3823A3A283A}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{9E268F8F-10BC-4911-8130-DA2CE02F36AF}"/>
+    <hyperlink ref="E10" r:id="rId9" location="par_textimage_1" xr:uid="{9E268F8F-10BC-4911-8130-DA2CE02F36AF}"/>
     <hyperlink ref="E11" r:id="rId10" xr:uid="{1C162764-94DC-4ACB-804C-95B4608D6418}"/>
     <hyperlink ref="E12" r:id="rId11" xr:uid="{697C878B-56A9-49CF-812E-17809EC1BCEF}"/>
     <hyperlink ref="E13" r:id="rId12" xr:uid="{74C4920A-43D1-433E-B7E9-48DA797A2663}"/>
@@ -1524,16 +1576,16 @@
     <hyperlink ref="E15" r:id="rId14" xr:uid="{8C9ED3CD-1849-49F2-A0A8-8B19390AC75A}"/>
     <hyperlink ref="E16" r:id="rId15" xr:uid="{7098B384-708E-4710-8871-E064BB37BBEC}"/>
     <hyperlink ref="E17" r:id="rId16" xr:uid="{333AF3A0-26F9-4419-BBC2-BF8B2856140B}"/>
-    <hyperlink ref="E20" r:id="rId17" xr:uid="{EA14D901-E73E-BA43-98A2-F9866BC9B446}"/>
-    <hyperlink ref="E21" r:id="rId18" xr:uid="{6FE8F2F1-2963-CF4B-937C-D8001722EBBE}"/>
-    <hyperlink ref="C9" r:id="rId19" xr:uid="{C0C44B39-ED24-4CB7-8567-36BDE64C048B}"/>
-    <hyperlink ref="C5" r:id="rId20" xr:uid="{EBB03B43-6801-41CF-B28C-67B4021EBFA4}"/>
-    <hyperlink ref="C4" r:id="rId21" xr:uid="{48E51C56-2EE1-4586-B1D8-8D9997236B46}"/>
-    <hyperlink ref="C12" r:id="rId22" xr:uid="{8026EAB3-3588-4AD6-8172-4E36C92FA1CE}"/>
-    <hyperlink ref="C14" r:id="rId23" xr:uid="{936134BF-6EED-4C2B-901C-A0DF4F02AC02}"/>
-    <hyperlink ref="C15" r:id="rId24" location="list-tab-1036221584" xr:uid="{7C8040CD-0183-4147-A3AD-BB43AD6220C8}"/>
-    <hyperlink ref="E18" r:id="rId25" xr:uid="{8367973A-61D7-4F56-802C-B742E5D509D9}"/>
-    <hyperlink ref="E19" r:id="rId26" xr:uid="{A1A44711-DE29-45C1-AB73-FCB76B0C358D}"/>
+    <hyperlink ref="E20" r:id="rId17" xr:uid="{6FE8F2F1-2963-CF4B-937C-D8001722EBBE}"/>
+    <hyperlink ref="C9" r:id="rId18" xr:uid="{C0C44B39-ED24-4CB7-8567-36BDE64C048B}"/>
+    <hyperlink ref="C5" r:id="rId19" xr:uid="{EBB03B43-6801-41CF-B28C-67B4021EBFA4}"/>
+    <hyperlink ref="C4" r:id="rId20" xr:uid="{48E51C56-2EE1-4586-B1D8-8D9997236B46}"/>
+    <hyperlink ref="C12" r:id="rId21" xr:uid="{8026EAB3-3588-4AD6-8172-4E36C92FA1CE}"/>
+    <hyperlink ref="C14" r:id="rId22" xr:uid="{936134BF-6EED-4C2B-901C-A0DF4F02AC02}"/>
+    <hyperlink ref="C15" r:id="rId23" location="list-tab-1036221584" xr:uid="{7C8040CD-0183-4147-A3AD-BB43AD6220C8}"/>
+    <hyperlink ref="E18" r:id="rId24" xr:uid="{8367973A-61D7-4F56-802C-B742E5D509D9}"/>
+    <hyperlink ref="E19" r:id="rId25" xr:uid="{A1A44711-DE29-45C1-AB73-FCB76B0C358D}"/>
+    <hyperlink ref="C10" r:id="rId26" xr:uid="{0F3DACF6-400C-4650-AD28-B70FA65152EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1554,47 +1606,47 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="11" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1603,12 +1655,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1789,13 +1838,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34C456AF-73FA-4F35-AC7E-80993F768A17}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD7481EB-B433-4263-8C3D-876818642452}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1803,5 +1855,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD7481EB-B433-4263-8C3D-876818642452}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34C456AF-73FA-4F35-AC7E-80993F768A17}"/>
 </file>
--- a/Data_Bibliography.xlsx
+++ b/Data_Bibliography.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26322"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate.sharepoint.com/sites/Section_SS23-CMSE-495-001-223211859-EL-32-A26-QSIDE-Human_Trafficking/Shared Documents/QSIDE-Human_Trafficking/Team Member Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED17CCA8-B27D-488F-8987-8439BEADAC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA9F5503-6B81-49A8-8194-ECC61E67E5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="3360" yWindow="340" windowWidth="15780" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="146">
   <si>
     <t>Title</t>
   </si>
@@ -42,6 +42,9 @@
     <t>Data Format</t>
   </si>
   <si>
+    <t>GitHub Reference</t>
+  </si>
+  <si>
     <t>Original Data Source Link</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
   </si>
   <si>
     <t>PDF, Tables</t>
+  </si>
+  <si>
+    <t>https://github.com/jacknuge28/QSIDE_HumanTrafficking/blob/main/Data/Raw_Data/001.001__ReportToGovernor_arrest_data.csv</t>
   </si>
   <si>
     <t>Michigan Data Collection and Research Subcommittee</t>
@@ -133,6 +139,9 @@
     <t>PDF, Graphs</t>
   </si>
   <si>
+    <t>https://github.com/jacknuge28/QSIDE_HumanTrafficking/blob/main/Data/Raw_Data/003.001__NSVSP_data.tsv</t>
+  </si>
+  <si>
     <t>https://www.icpsr.umich.edu/web/NACJD/studies/38149/datadocumentation#</t>
   </si>
   <si>
@@ -275,6 +284,9 @@
   </si>
   <si>
     <t>PDF, Graphics</t>
+  </si>
+  <si>
+    <t>https://github.com/jacknuge28/QSIDE_HumanTrafficking/blob/main/Data/Raw_Data/012.001__childsafe.ai_analysis.pdf</t>
   </si>
   <si>
     <t>https://childsafe.ai/njsi-18-summer-2019-analysis-and-results</t>
@@ -663,9 +675,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -684,6 +693,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1000,11 +1012,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1012,20 +1024,21 @@
     <col min="1" max="1" width="18" style="8" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="39.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="36.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" style="3" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="3"/>
-    <col min="14" max="14" width="22.85546875" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="3"/>
+    <col min="4" max="4" width="17.85546875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="39.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="36.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" style="3" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="3"/>
+    <col min="15" max="15" width="22.85546875" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" ht="30.75">
+    <row r="1" spans="1:15" s="5" customFormat="1" ht="30.75">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1035,557 +1048,576 @@
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="137.25">
+      <c r="O1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="137.25">
       <c r="A2" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="121.5">
+      <c r="K2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="121.5">
       <c r="A3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="121.5">
+      <c r="O3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="121.5">
       <c r="A4" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="C4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="D4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="E4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="F4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="152.25">
+      <c r="G4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="152.25">
       <c r="A5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="106.5">
+      <c r="H5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="106.5">
       <c r="A6" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="F6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="76.5">
+      <c r="H6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="76.5">
       <c r="A7" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="106.5">
+      <c r="A8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="106.5">
-      <c r="A8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="106.5">
+    </row>
+    <row r="9" spans="1:15" ht="106.5">
       <c r="A9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="366">
+      <c r="A10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="152.25">
+      <c r="A11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="F11" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="137.25">
+      <c r="A12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="106.5">
+      <c r="A13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="121.5">
+      <c r="A14" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="106.5">
+      <c r="A15" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="106.5">
+      <c r="A16" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="91.5">
+      <c r="A17" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="167.25">
+      <c r="A18" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="137.25">
+      <c r="A19" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="106.5">
+      <c r="A20" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="366">
-      <c r="A10" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="152.25">
-      <c r="A11" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="106.5">
-      <c r="A12" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="106.5">
-      <c r="A13" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="121.5">
-      <c r="A14" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="106.5">
-      <c r="A15" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="106.5">
-      <c r="A16" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="91.5">
-      <c r="A17" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="229.5">
-      <c r="A18" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="137.25">
-      <c r="A19" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="106.5">
-      <c r="A20" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="1:11"/>
+      <c r="F20" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="1:12"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576" xr:uid="{C16078C6-0E4B-4C47-8598-644D7A59B756}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{C16078C6-0E4B-4C47-8598-644D7A59B756}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{0F83C1E2-1834-41EA-AA43-D512E8CCB698}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{CFDA62F2-D471-4C09-88F4-C8ED21EFB4B1}"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://bjs.ojp.gov/library/publications/human-trafficking-data-collection-activities-2021" xr:uid="{3DF7F3A4-7B26-4E44-A36C-C01EAC47CF24}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{8228589A-FF7B-4454-87A7-E22C60445219}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{A75E7586-78F7-40B3-A15E-F80715649A07}"/>
-    <hyperlink ref="E7" r:id="rId6" location=":~:text=Web%20Chat%3A%2095-,Cases,were%20identified%20in%20these%20cases" xr:uid="{20F3D778-9EB7-4100-B544-0F629C59862C}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{2E35C3D3-8758-471E-A920-B0F8C0D6150D}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{551E7F0E-49CF-4B20-9AA1-E3823A3A283A}"/>
-    <hyperlink ref="E10" r:id="rId9" location="par_textimage_1" xr:uid="{9E268F8F-10BC-4911-8130-DA2CE02F36AF}"/>
-    <hyperlink ref="E11" r:id="rId10" xr:uid="{1C162764-94DC-4ACB-804C-95B4608D6418}"/>
-    <hyperlink ref="E12" r:id="rId11" xr:uid="{697C878B-56A9-49CF-812E-17809EC1BCEF}"/>
-    <hyperlink ref="E13" r:id="rId12" xr:uid="{74C4920A-43D1-433E-B7E9-48DA797A2663}"/>
-    <hyperlink ref="E14" r:id="rId13" xr:uid="{59E0CC7D-EFF1-4BD0-97F6-26343FD4F9FC}"/>
-    <hyperlink ref="E15" r:id="rId14" xr:uid="{8C9ED3CD-1849-49F2-A0A8-8B19390AC75A}"/>
-    <hyperlink ref="E16" r:id="rId15" xr:uid="{7098B384-708E-4710-8871-E064BB37BBEC}"/>
-    <hyperlink ref="E17" r:id="rId16" xr:uid="{333AF3A0-26F9-4419-BBC2-BF8B2856140B}"/>
-    <hyperlink ref="E20" r:id="rId17" xr:uid="{6FE8F2F1-2963-CF4B-937C-D8001722EBBE}"/>
-    <hyperlink ref="C9" r:id="rId18" xr:uid="{C0C44B39-ED24-4CB7-8567-36BDE64C048B}"/>
-    <hyperlink ref="C5" r:id="rId19" xr:uid="{EBB03B43-6801-41CF-B28C-67B4021EBFA4}"/>
-    <hyperlink ref="C4" r:id="rId20" xr:uid="{48E51C56-2EE1-4586-B1D8-8D9997236B46}"/>
-    <hyperlink ref="C12" r:id="rId21" xr:uid="{8026EAB3-3588-4AD6-8172-4E36C92FA1CE}"/>
-    <hyperlink ref="C14" r:id="rId22" xr:uid="{936134BF-6EED-4C2B-901C-A0DF4F02AC02}"/>
-    <hyperlink ref="C15" r:id="rId23" location="list-tab-1036221584" xr:uid="{7C8040CD-0183-4147-A3AD-BB43AD6220C8}"/>
-    <hyperlink ref="E18" r:id="rId24" xr:uid="{8367973A-61D7-4F56-802C-B742E5D509D9}"/>
-    <hyperlink ref="E19" r:id="rId25" xr:uid="{A1A44711-DE29-45C1-AB73-FCB76B0C358D}"/>
-    <hyperlink ref="C10" r:id="rId26" xr:uid="{0F3DACF6-400C-4650-AD28-B70FA65152EB}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{0F83C1E2-1834-41EA-AA43-D512E8CCB698}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{CFDA62F2-D471-4C09-88F4-C8ED21EFB4B1}"/>
+    <hyperlink ref="F4" r:id="rId3" display="https://bjs.ojp.gov/library/publications/human-trafficking-data-collection-activities-2021" xr:uid="{3DF7F3A4-7B26-4E44-A36C-C01EAC47CF24}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{8228589A-FF7B-4454-87A7-E22C60445219}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{A75E7586-78F7-40B3-A15E-F80715649A07}"/>
+    <hyperlink ref="F7" r:id="rId6" location=":~:text=Web%20Chat%3A%2095-,Cases,were%20identified%20in%20these%20cases" xr:uid="{20F3D778-9EB7-4100-B544-0F629C59862C}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{2E35C3D3-8758-471E-A920-B0F8C0D6150D}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{551E7F0E-49CF-4B20-9AA1-E3823A3A283A}"/>
+    <hyperlink ref="F10" r:id="rId9" location="par_textimage_1" xr:uid="{9E268F8F-10BC-4911-8130-DA2CE02F36AF}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{1C162764-94DC-4ACB-804C-95B4608D6418}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{697C878B-56A9-49CF-812E-17809EC1BCEF}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{74C4920A-43D1-433E-B7E9-48DA797A2663}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{59E0CC7D-EFF1-4BD0-97F6-26343FD4F9FC}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{8C9ED3CD-1849-49F2-A0A8-8B19390AC75A}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{7098B384-708E-4710-8871-E064BB37BBEC}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{333AF3A0-26F9-4419-BBC2-BF8B2856140B}"/>
+    <hyperlink ref="F20" r:id="rId17" xr:uid="{6FE8F2F1-2963-CF4B-937C-D8001722EBBE}"/>
+    <hyperlink ref="D9" r:id="rId18" xr:uid="{C0C44B39-ED24-4CB7-8567-36BDE64C048B}"/>
+    <hyperlink ref="D5" r:id="rId19" xr:uid="{EBB03B43-6801-41CF-B28C-67B4021EBFA4}"/>
+    <hyperlink ref="D4" r:id="rId20" xr:uid="{48E51C56-2EE1-4586-B1D8-8D9997236B46}"/>
+    <hyperlink ref="D12" r:id="rId21" xr:uid="{8026EAB3-3588-4AD6-8172-4E36C92FA1CE}"/>
+    <hyperlink ref="D14" r:id="rId22" xr:uid="{936134BF-6EED-4C2B-901C-A0DF4F02AC02}"/>
+    <hyperlink ref="D15" r:id="rId23" location="list-tab-1036221584" xr:uid="{7C8040CD-0183-4147-A3AD-BB43AD6220C8}"/>
+    <hyperlink ref="F18" r:id="rId24" xr:uid="{8367973A-61D7-4F56-802C-B742E5D509D9}"/>
+    <hyperlink ref="F19" r:id="rId25" xr:uid="{A1A44711-DE29-45C1-AB73-FCB76B0C358D}"/>
+    <hyperlink ref="D10" r:id="rId26" xr:uid="{0F3DACF6-400C-4650-AD28-B70FA65152EB}"/>
+    <hyperlink ref="C2" r:id="rId27" xr:uid="{510BF580-48B2-4DB2-B594-020D9895BAF9}"/>
+    <hyperlink ref="C4" r:id="rId28" xr:uid="{C80D6DD8-A13B-4D8D-B4C9-0B9E92EFBC72}"/>
+    <hyperlink ref="C5" r:id="rId29" xr:uid="{EA10DB6E-4139-4BFE-AC1B-AF0C04B83A50}"/>
+    <hyperlink ref="C12" r:id="rId30" xr:uid="{3C837C9E-D67F-4AE6-A2C9-3874CCE3F3F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1605,48 +1637,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="11" t="s">
-        <v>133</v>
+      <c r="A1" s="10" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1655,12 +1687,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD9D821B4823494487C4A6BAD574C2C4" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="73428cc9e5078a3b917b878df8dd18b9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="882d2945-3548-4c8d-84e9-3cdb9bc63142" xmlns:ns3="72d250c7-a541-458c-ab26-f41fdda58be5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7706a8da50c97117ea5bae3701e85309" ns2:_="" ns3:_="">
     <xsd:import namespace="882d2945-3548-4c8d-84e9-3cdb9bc63142"/>
@@ -1837,23 +1878,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34C456AF-73FA-4F35-AC7E-80993F768A17}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD7481EB-B433-4263-8C3D-876818642452}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BA0FCF-8451-4A6A-A975-179228CC5505}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34C456AF-73FA-4F35-AC7E-80993F768A17}"/>
 </file>
--- a/Data_Bibliography.xlsx
+++ b/Data_Bibliography.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate.sharepoint.com/sites/Section_SS23-CMSE-495-001-223211859-EL-32-A26-QSIDE-Human_Trafficking/Shared Documents/QSIDE-Human_Trafficking/Team Member Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA9F5503-6B81-49A8-8194-ECC61E67E5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADE05104-21C6-4954-9766-C5222EB5D531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="3360" yWindow="340" windowWidth="15780" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sources" sheetId="1" r:id="rId1"/>
-    <sheet name="Formatting" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="149">
   <si>
     <t>Title</t>
   </si>
@@ -66,12 +65,6 @@
     <t>Who Added</t>
   </si>
   <si>
-    <t>Factor Tags</t>
-  </si>
-  <si>
-    <t>Factor Tags to Use</t>
-  </si>
-  <si>
     <t>2017 Report to the Governor – Michigan Human Trafficking Commission</t>
   </si>
   <si>
@@ -81,6 +74,9 @@
     <t>https://github.com/jacknuge28/QSIDE_HumanTrafficking/blob/main/Data/Raw_Data/001.001__ReportToGovernor_arrest_data.csv</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Michigan Data Collection and Research Subcommittee</t>
   </si>
   <si>
@@ -96,31 +92,15 @@
     <t>This resource contains information on various governmental committees around Michigan dealing with Human Trafficking. Contact names and department names for these prevention/prosecution resources can be found. Also includes arrest data for a small window in time relating to human trafficking.</t>
   </si>
   <si>
-    <t>Law enforcement</t>
-  </si>
-  <si>
     <t>J</t>
   </si>
   <si>
-    <t>Home Insecure
-Child Welfare
-Poverty
-Substance Abuse
-Domestic Abuse
-Sex/Gender Identity
-Immigration
-Law Enforcement</t>
-  </si>
-  <si>
     <t>2018 Report to the Governor – Michigan Human Trafficking Commission</t>
   </si>
   <si>
     <t>PDF</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.michigan.gov/ag/-/media/Project/Websites/AG/publications/2018/2018_Michigan_Human_Trafficking_Commission_Report.pdf?rev=8552795460204c62ae3e3093f9387e8f&amp;hash=1ED5DC519E68DBD4F9D671DD52D3DAF7  </t>
   </si>
   <si>
@@ -128,9 +108,6 @@
   </si>
   <si>
     <t>This resource contains information on various governmental committees around Michigan dealing with Human Trafficking. Contact names and department names for these prevention/prosecution resources can be found. Some updates from the previous year's report</t>
-  </si>
-  <si>
-    <t>travel</t>
   </si>
   <si>
     <t xml:space="preserve">Bureau of Justice Statistics – Human Trafficking Data Collection Activities, 2021 </t>
@@ -465,34 +442,62 @@
     <t>Difference between domestic violence and HT</t>
   </si>
   <si>
-    <t>DV</t>
-  </si>
-  <si>
-    <t>Factor Dropdown</t>
-  </si>
-  <si>
-    <t>Home Insecure</t>
-  </si>
-  <si>
-    <t>Child Welfare</t>
-  </si>
-  <si>
-    <t>Poverty</t>
-  </si>
-  <si>
-    <t>Substance Abuse</t>
-  </si>
-  <si>
-    <t>Domestic Abuse</t>
-  </si>
-  <si>
-    <t>Sex/Gender Identity</t>
-  </si>
-  <si>
-    <t>Immigration</t>
-  </si>
-  <si>
-    <t>Law Enforcement</t>
+    <t>2021 Crime in Michigan
+Annual Report</t>
+  </si>
+  <si>
+    <t>https://www.michigan.gov/msp/divisions/cjic/micr</t>
+  </si>
+  <si>
+    <t>Michigan Incident Crime Reporting
+The FBI</t>
+  </si>
+  <si>
+    <t>https://www.michigan.gov/msp/-/media/Project/Websites/msp/micr-assets/2021/2021_Crime-in-Michigan.pdf?rev=821053d286c843e4bb4f5d641673ea36&amp;hash=2E16F3B33652B0AFBBE08B5E59FA53BE</t>
+  </si>
+  <si>
+    <t>Arrests, Michigan</t>
+  </si>
+  <si>
+    <t>The 2021 Crime in Michigan report provides statistics and analysis of crime in Michigan for the year 2021. The report covers a wide range of criminal activity, including homicide, assault, robbery, burglary, theft, and motor vehicle theft. It also includes data on arrest rates and clearance rates for various types of crime. The report highlights trends and changes in crime rates over the past few years, and provides comparisons to national crime statistics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains information relating to crime counts in Michigan, including those of reported human trafficking. Crime/Criminals are also broken down by demographic, potentially allowing for cross-examination with other data for a "susceptibility" index. </t>
+  </si>
+  <si>
+    <t>Michigan State Police Criminal Justice Information Center 2021 Agency Crime Statistics Report</t>
+  </si>
+  <si>
+    <t>XLSX, Workbook</t>
+  </si>
+  <si>
+    <t>https://www.michigan.gov/msp/-/media/Project/Websites/msp/micr-assets/2021/Agency-Crime-Stats_2021.xlsx?rev=f073f9242f524c5188e8b7a4a459d2bc&amp;hash=8CF27427D05B34CED651F41E9EE137C7</t>
+  </si>
+  <si>
+    <t>Michigan, Arrests, Domestic Violence, Substance Abuse, Sexual Abuse</t>
+  </si>
+  <si>
+    <t>Detailed information relating to the 2021 Crime in Michigan report. Crime is categorized by county, the type of victim (Person, Property, Society, Other), and the frequency.</t>
+  </si>
+  <si>
+    <t>Supplemental data for the 2021 Crime in Michigan Report. Description of how the column counts are generated and what is considered a crime is also included for understanding.</t>
+  </si>
+  <si>
+    <t>Michigan State Police 
+Criminal Justice Information Center
+2021 Domestic Violence Victims by County, Race and Sex</t>
+  </si>
+  <si>
+    <t>https://www.michigan.gov/msp/-/media/Project/Websites/msp/micr-assets/2021/DV-County-and-Race-Sex_2021.xlsx?rev=83c6064a19e0480d99d75cb31398dee8&amp;hash=11E8F47634A40B3D1118CDA8DDB7FDAF</t>
+  </si>
+  <si>
+    <t>Michigan, Arrests, Domestic Violence, Race</t>
+  </si>
+  <si>
+    <t>Detailed information relating to the 2021 Crime in Michigan report. Includes domestic violence victim information, categorizing the victims by race, sex, and county.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplemental data for the 2021 Crime in Michigan Report. Victims are also broken down by demographic, potentially allowing for cross-examination with other data for a "susceptibility" index. </t>
   </si>
 </sst>
 </file>
@@ -646,7 +651,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -675,7 +680,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1012,11 +1016,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1024,21 +1028,18 @@
     <col min="1" max="1" width="18" style="8" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="34.85546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" style="15" customWidth="1"/>
     <col min="7" max="7" width="24.140625" style="5" customWidth="1"/>
     <col min="8" max="8" width="39.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="36.42578125" style="2" customWidth="1"/>
     <col min="10" max="10" width="18.85546875" style="3" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" style="3" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="3"/>
-    <col min="15" max="15" width="22.85546875" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="3"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" ht="30.75">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="30.75">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1048,13 +1049,13 @@
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -1069,524 +1070,581 @@
       <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="137.25">
+      <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="137.25">
-      <c r="A2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="121.5">
+      <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="D3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="121.5">
-      <c r="A3" s="8" t="s">
+      <c r="G3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="I3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="K3" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="121.5">
+      <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="B4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="C4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="D4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="5" t="s">
+      <c r="E4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="152.25">
+      <c r="A5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="106.5">
+      <c r="A6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="76.5">
+      <c r="A7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="106.5">
+      <c r="A8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="106.5">
+      <c r="A9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="366">
+      <c r="A10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="152.25">
+      <c r="A11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="137.25">
+      <c r="A12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="106.5">
+      <c r="A13" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="121.5">
+      <c r="A14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="106.5">
+      <c r="A15" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="106.5">
+      <c r="A16" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="91.5">
+      <c r="A17" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="167.25">
+      <c r="A18" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="137.25">
+      <c r="A19" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="106.5">
+      <c r="A20" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="167.25">
+      <c r="A21" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="121.5">
-      <c r="A4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="152.25">
-      <c r="A5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="106.5">
-      <c r="A6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="76.5">
-      <c r="A7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="106.5">
-      <c r="A8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="106.5">
-      <c r="A9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="366">
-      <c r="A10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="152.25">
-      <c r="A11" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="137.25">
-      <c r="A12" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="106.5">
-      <c r="A13" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="121.5">
-      <c r="A14" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="106.5">
-      <c r="A15" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="106.5">
-      <c r="A16" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="91.5">
-      <c r="A17" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="167.25">
-      <c r="A18" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="137.25">
-      <c r="A19" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="106.5">
-      <c r="A20" s="8" t="s">
+      <c r="D21" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="15" t="s">
+      <c r="E21" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="F21" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="G21" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L20" s="3" t="s">
+      <c r="H21" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="F21" s="15"/>
-    </row>
-    <row r="22" spans="1:12"/>
+      <c r="I21" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="198">
+      <c r="A22" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="198">
+      <c r="A23" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{C16078C6-0E4B-4C47-8598-644D7A59B756}"/>
-  </dataValidations>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{0F83C1E2-1834-41EA-AA43-D512E8CCB698}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{CFDA62F2-D471-4C09-88F4-C8ED21EFB4B1}"/>
@@ -1618,87 +1676,30 @@
     <hyperlink ref="C4" r:id="rId28" xr:uid="{C80D6DD8-A13B-4D8D-B4C9-0B9E92EFBC72}"/>
     <hyperlink ref="C5" r:id="rId29" xr:uid="{EA10DB6E-4139-4BFE-AC1B-AF0C04B83A50}"/>
     <hyperlink ref="C12" r:id="rId30" xr:uid="{3C837C9E-D67F-4AE6-A2C9-3874CCE3F3F8}"/>
+    <hyperlink ref="F21" r:id="rId31" xr:uid="{2FCBAC2E-C991-4A28-ACF7-CE7080763EC3}"/>
+    <hyperlink ref="D21" r:id="rId32" xr:uid="{685E7D4A-9823-4788-A509-2DC8FFE074B0}"/>
+    <hyperlink ref="D22" r:id="rId33" xr:uid="{BF639D6D-20DD-4B31-B6BD-00F182C36008}"/>
+    <hyperlink ref="F22" r:id="rId34" xr:uid="{067762D5-CF36-4A41-B645-62361DBAAEEE}"/>
+    <hyperlink ref="D23" r:id="rId35" xr:uid="{32D6D57E-5BBB-4F45-AF34-F20721713E5B}"/>
+    <hyperlink ref="F23" r:id="rId36" xr:uid="{AAB555AA-5D71-45ED-961A-9AD9D8DF1DF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A2D95D-E50B-472A-A466-E8532FDF7051}">
-  <dimension ref="A1:A9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1879,11 +1880,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34C456AF-73FA-4F35-AC7E-80993F768A17}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD7481EB-B433-4263-8C3D-876818642452}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD7481EB-B433-4263-8C3D-876818642452}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34C456AF-73FA-4F35-AC7E-80993F768A17}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Data_Bibliography.xlsx
+++ b/Data_Bibliography.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate.sharepoint.com/sites/Section_SS23-CMSE-495-001-223211859-EL-32-A26-QSIDE-Human_Trafficking/Shared Documents/QSIDE-Human_Trafficking/Team Member Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADE05104-21C6-4954-9766-C5222EB5D531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B5888A5-86C6-44AE-8ADF-E1FA83FBB1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="3360" yWindow="340" windowWidth="15780" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="148">
   <si>
     <t>Title</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Relevance</t>
   </si>
   <si>
-    <t>Who Added</t>
-  </si>
-  <si>
     <t>2017 Report to the Governor – Michigan Human Trafficking Commission</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
   </si>
   <si>
     <t>This resource contains information on various governmental committees around Michigan dealing with Human Trafficking. Contact names and department names for these prevention/prosecution resources can be found. Also includes arrest data for a small window in time relating to human trafficking.</t>
-  </si>
-  <si>
-    <t>J</t>
   </si>
   <si>
     <t>2018 Report to the Governor – Michigan Human Trafficking Commission</t>
@@ -176,9 +170,6 @@
 often are not recognized as human trafficking victims"</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>Michigan | National Human Trafficking Hotline</t>
   </si>
   <si>
@@ -366,9 +357,6 @@
     <t>The table contains data that can be useful in understanding which school districts, and potentially which states have higher risks of poverty</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>SAIPE Model Input Data</t>
   </si>
   <si>
@@ -446,6 +434,9 @@
 Annual Report</t>
   </si>
   <si>
+    <t>https://github.com/jacknuge28/QSIDE_HumanTrafficking/blob/main/Data/Raw_Data/021.001__2021_Crime%20in%20Michigan.pdf</t>
+  </si>
+  <si>
     <t>https://www.michigan.gov/msp/divisions/cjic/micr</t>
   </si>
   <si>
@@ -469,6 +460,9 @@
   </si>
   <si>
     <t>XLSX, Workbook</t>
+  </si>
+  <si>
+    <t>https://github.com/jacknuge28/QSIDE_HumanTrafficking/blob/main/Data/Raw_Data/022.001__Agency%20Crime%20Stats_2021.xlsx</t>
   </si>
   <si>
     <t>https://www.michigan.gov/msp/-/media/Project/Websites/msp/micr-assets/2021/Agency-Crime-Stats_2021.xlsx?rev=f073f9242f524c5188e8b7a4a459d2bc&amp;hash=8CF27427D05B34CED651F41E9EE137C7</t>
@@ -486,6 +480,9 @@
     <t>Michigan State Police 
 Criminal Justice Information Center
 2021 Domestic Violence Victims by County, Race and Sex</t>
+  </si>
+  <si>
+    <t>https://github.com/jacknuge28/QSIDE_HumanTrafficking/blob/main/Data/Raw_Data/023.001__Domestic_Violence_by_CRS.xlsx</t>
   </si>
   <si>
     <t>https://www.michigan.gov/msp/-/media/Project/Websites/msp/micr-assets/2021/DV-County-and-Race-Sex_2021.xlsx?rev=83c6064a19e0480d99d75cb31398dee8&amp;hash=11E8F47634A40B3D1118CDA8DDB7FDAF</t>
@@ -1016,11 +1013,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+      <pane ySplit="1" topLeftCell="G19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1035,11 +1032,10 @@
     <col min="8" max="8" width="39.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="36.42578125" style="2" customWidth="1"/>
     <col min="10" max="10" width="18.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="30.75">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="30.75">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1067,581 +1063,529 @@
       <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="137.25">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="137.25">
-      <c r="A2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="121.5">
+      <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="121.5">
-      <c r="A3" s="8" t="s">
+      <c r="D3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="I3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="121.5">
+      <c r="A4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="C4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="152.25">
+      <c r="A5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="106.5">
+      <c r="A6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="76.5">
+      <c r="A7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="106.5">
+      <c r="A8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="106.5">
+      <c r="A9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="366">
+      <c r="A10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="152.25">
+      <c r="A11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="137.25">
+      <c r="A12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="106.5">
+      <c r="A13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="121.5">
+      <c r="A14" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="106.5">
+      <c r="A15" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="106.5">
+      <c r="A16" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="91.5">
+      <c r="A17" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="167.25">
+      <c r="A18" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="137.25">
+      <c r="A19" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="106.5">
+      <c r="A20" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="167.25">
+      <c r="A21" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="121.5">
-      <c r="A4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="152.25">
-      <c r="A5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="106.5">
-      <c r="A6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="76.5">
-      <c r="A7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="106.5">
-      <c r="A8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="106.5">
-      <c r="A9" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="366">
-      <c r="A10" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="152.25">
-      <c r="A11" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="137.25">
-      <c r="A12" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="106.5">
-      <c r="A13" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="121.5">
-      <c r="A14" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="106.5">
-      <c r="A15" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="106.5">
-      <c r="A16" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="91.5">
-      <c r="A17" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="167.25">
-      <c r="A18" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="137.25">
-      <c r="A19" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="106.5">
-      <c r="A20" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="14" t="s">
+      <c r="C21" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="D21" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="E21" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="167.25">
-      <c r="A21" s="8" t="s">
+      <c r="F21" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="14" t="s">
+      <c r="G21" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="H21" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="I21" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G21" s="5" t="s">
+    </row>
+    <row r="22" spans="1:9" ht="198">
+      <c r="A22" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="B22" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="C22" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="K21" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="198">
-      <c r="A22" s="8" t="s">
+      <c r="D22" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="E22" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="14" t="s">
+      <c r="H22" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="I22" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:9" ht="198">
+      <c r="A23" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="B23" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="K22" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="198">
-      <c r="A23" s="8" t="s">
+      <c r="D23" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D23" s="14" t="s">
+      <c r="E23" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="G23" s="5" t="s">
+      <c r="H23" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1682,27 +1626,15 @@
     <hyperlink ref="F22" r:id="rId34" xr:uid="{067762D5-CF36-4A41-B645-62361DBAAEEE}"/>
     <hyperlink ref="D23" r:id="rId35" xr:uid="{32D6D57E-5BBB-4F45-AF34-F20721713E5B}"/>
     <hyperlink ref="F23" r:id="rId36" xr:uid="{AAB555AA-5D71-45ED-961A-9AD9D8DF1DF4}"/>
+    <hyperlink ref="C21" r:id="rId37" xr:uid="{FF96898B-30AE-4211-998F-F6C6C7F0BA06}"/>
+    <hyperlink ref="C22" r:id="rId38" xr:uid="{C1A62D61-AA87-4B0D-BF87-CD38D47F9249}"/>
+    <hyperlink ref="C23" r:id="rId39" xr:uid="{ADB0E954-BC84-4752-94D7-75431973B330}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD9D821B4823494487C4A6BAD574C2C4" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="73428cc9e5078a3b917b878df8dd18b9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="882d2945-3548-4c8d-84e9-3cdb9bc63142" xmlns:ns3="72d250c7-a541-458c-ab26-f41fdda58be5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7706a8da50c97117ea5bae3701e85309" ns2:_="" ns3:_="">
     <xsd:import namespace="882d2945-3548-4c8d-84e9-3cdb9bc63142"/>
@@ -1879,14 +1811,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BA0FCF-8451-4A6A-A975-179228CC5505}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD7481EB-B433-4263-8C3D-876818642452}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34C456AF-73FA-4F35-AC7E-80993F768A17}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BA0FCF-8451-4A6A-A975-179228CC5505}"/>
 </file>